--- a/data/documentation/spreadsheets/done/aws@aws-cli.xlsx
+++ b/data/documentation/spreadsheets/done/aws@aws-cli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\USP-2020\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05D19FD-CECD-4592-A0BD-A0F38E357B72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9704B5-06ED-4829-A714-9844757DFF7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -540,18 +540,18 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G44:G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.59765625" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="43.6171875" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,67 +571,67 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
@@ -639,7 +639,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
@@ -647,7 +647,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -655,7 +655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
@@ -663,7 +663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -671,7 +671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -679,7 +679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -687,7 +687,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -695,7 +695,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -703,7 +703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -711,7 +711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -719,7 +719,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -727,7 +727,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
@@ -735,7 +735,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
@@ -743,7 +743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -751,7 +751,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -759,7 +759,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -767,7 +767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -775,7 +775,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
@@ -783,7 +783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
@@ -791,7 +791,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -799,7 +799,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -807,7 +807,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -823,7 +823,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -831,7 +831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -839,7 +839,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -847,7 +847,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -855,7 +855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -863,7 +863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -871,52 +871,55 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B47" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -924,7 +927,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -932,7 +935,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
@@ -940,7 +943,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
@@ -948,7 +951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
